--- a/src/main/resources/TestData/TestData.xlsx
+++ b/src/main/resources/TestData/TestData.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="userDetails" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="userDetails1" sheetId="1" r:id="rId1"/>
+    <sheet name="userDetails" sheetId="2" r:id="rId2"/>
+    <sheet name="deleteUser" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>EmployeeName</t>
   </si>
@@ -104,6 +104,63 @@
   </si>
   <si>
     <t>Fabienne.Gabor1</t>
+  </si>
+  <si>
+    <t>Cecil.Bonaparte2</t>
+  </si>
+  <si>
+    <t>Daniel.Upton2</t>
+  </si>
+  <si>
+    <t>Fiona.Grace2</t>
+  </si>
+  <si>
+    <t>Fabienne.Gabor2</t>
+  </si>
+  <si>
+    <t>Cecil.Bonaparte3</t>
+  </si>
+  <si>
+    <t>Daniel.Upton3</t>
+  </si>
+  <si>
+    <t>Daniel.Upton3</t>
+  </si>
+  <si>
+    <t>Cecil.Bonaparte4</t>
+  </si>
+  <si>
+    <t>Daniel.Upton4</t>
+  </si>
+  <si>
+    <t>Cecil.Bonaparte5</t>
+  </si>
+  <si>
+    <t>Daniel.Upton5</t>
+  </si>
+  <si>
+    <t>Cecil.Bonaparte6</t>
+  </si>
+  <si>
+    <t>Daniel.Upton6</t>
+  </si>
+  <si>
+    <t>Cecil.Bonaparte7</t>
+  </si>
+  <si>
+    <t>Daniel.Upton7</t>
+  </si>
+  <si>
+    <t>Cecil.Bonaparte8</t>
+  </si>
+  <si>
+    <t>Daniel.Upton8</t>
+  </si>
+  <si>
+    <t>Cecil.Bonaparte9</t>
+  </si>
+  <si>
+    <t>Daniel.Upton9</t>
   </si>
 </sst>
 </file>
@@ -429,9 +486,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -446,25 +501,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -479,7 +542,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -494,7 +559,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -509,13 +576,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -524,7 +595,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -537,9 +610,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -550,9 +621,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -565,9 +634,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -582,9 +649,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -599,9 +664,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -614,9 +677,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -629,9 +690,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1034,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="203" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="203" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000" customHeight="1"/>
@@ -1065,7 +1124,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>7</v>
@@ -1079,7 +1138,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
@@ -1093,7 +1152,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -1107,7 +1166,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>7</v>
@@ -1125,14 +1184,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.14785753" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="16.14785753" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="9.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="12.00499998" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1141,14 +1249,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="180" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.14785753" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
